--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3114.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3114.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.647158598218333</v>
+        <v>1.534982800483704</v>
       </c>
       <c r="B1">
-        <v>1.905028616325057</v>
+        <v>2.337340593338013</v>
       </c>
       <c r="C1">
-        <v>2.412862857348489</v>
+        <v>2.823202610015869</v>
       </c>
       <c r="D1">
-        <v>4.971359467288035</v>
+        <v>3.279439687728882</v>
       </c>
       <c r="E1">
-        <v>1.869014971969428</v>
+        <v>2.169921398162842</v>
       </c>
     </row>
   </sheetData>
